--- a/DFT_Calculations/smiles_to_log/working_dir/smiles.xlsx
+++ b/DFT_Calculations/smiles_to_log/working_dir/smiles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R9000P\stahl_data_science\DFT Calculations\smiles_to_log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R9000P\stahl_data_science\DFT_Calculations\smiles_to_log\working_dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC378F4-B16D-40A4-A7C8-698B3263F7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B7639F-2FE9-4062-89E3-B53085952613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="23385" xr2:uid="{A3D57890-EAF1-9348-A434-A2696BF9CCF6}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{A3D57890-EAF1-9348-A434-A2696BF9CCF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>CC1=NC2=C(C=CC=C2)C=N1</t>
   </si>
   <si>
-    <t>CC1=NC=NC2=C1C=CC=C2</t>
-  </si>
-  <si>
     <t>CC1=NC2=C(C=CC=C2)N=C1</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>CCC1=NC2=CC=CC=C2C=N1</t>
   </si>
   <si>
-    <t>CCC1=NC=NC2=CC=CC=C21</t>
-  </si>
-  <si>
     <t>CCC1=NC2=CC=CC=C2N=C1</t>
   </si>
   <si>
@@ -358,6 +352,12 @@
   </si>
   <si>
     <t>pyrdz3</t>
+  </si>
+  <si>
+    <t>CC1=C(C=CC=C2)C2=NC=N1</t>
+  </si>
+  <si>
+    <t>CCC1=C2C=CC=CC2=NC=N1</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -740,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561A2412-3444-7F4F-A8F8-F45AE6912C3E}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -752,7 +772,7 @@
     <col min="2" max="16384" width="11.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -760,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -768,13 +788,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -782,10 +802,13 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -793,10 +816,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -804,363 +830,363 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A15:A23 A2:A8 A41:A2396 A31 A25">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  <conditionalFormatting sqref="A16:A23 A2:A5 A41:A2396 A31 A25 A7:A8">
+    <cfRule type="duplicateValues" dxfId="2" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
